--- a/pred_ohlcv/54_21/2020-01-11 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>40875.68124537999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42883.02524537998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10391.74804537998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-5039749.769637369</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4999027.997037368</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4999027.997037368</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4938157.502937368</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4936709.791737368</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4936709.791737368</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4989432.396937368</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4999694.053037369</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4999694.053037369</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4999660.034145148</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4999660.034145148</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4963201.684045148</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4963201.684045148</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4912279.691745148</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4869400.023509538</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4735590.022409538</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4771144.138309537</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4771144.138309537</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4771154.357209537</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4771141.483609538</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4786320.757363528</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4786320.757363528</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4777343.143763528</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4791306.847163528</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4790941.611763529</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4872110.596063528</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4874603.664863528</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4875033.809363528</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4905676.008863528</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4953951.763663528</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4949533.605763528</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4967038.897363529</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-4979360.801863529</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-4987360.801863529</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-4979396.801863529</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4979129.257463529</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5048596.397950149</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-5050609.386950149</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-5050575.186950149</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-5204251.925150149</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-5204251.925150149</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-5222036.624050149</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-5222762.337450149</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-5215744.574450148</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5325220.139273694</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5217203.340973694</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5239010.116044924</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5243700.809643974</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-5261574.950543974</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-5239757.296268864</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-5244239.744468864</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-5207361.796268864</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-5148232.160155924</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-5148232.160155924</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5236824.581555924</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5236714.278655925</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-5236714.278655925</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5251979.655874735</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-5251979.655874735</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-5279431.886294285</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-5444913.720254285</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-5434334.353454285</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-5195566.288854285</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-5207602.908654286</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-5207942.986454286</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-6733136.71152921</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-6856745.041182732</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-6719545.234182732</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-6725185.555182733</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-6782093.984982733</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-6722309.440382733</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-6750716.092082733</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-6887577.627144522</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-6828910.089744522</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-7012805.713215781</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-7017908.573215782</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-7017908.573215782</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-7132347.749861142</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-7148378.623061142</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-7140162.613661142</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-7071072.725661142</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-7071072.725661142</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-7070761.740661141</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-7076268.971761142</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-6898808.694499739</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-6820897.899579059</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-6641538.800081449</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-6758608.288281448</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-6431295.530881448</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-6527361.772181448</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-6487830.288061137</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-6487830.288061137</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-6632169.194161138</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-6637169.194161138</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-6555634.832861138</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-6180782.892919818</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-6410365.965019818</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-6410365.965019818</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-6173860.773019819</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-6130526.013619819</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-4705866.895436659</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-4605176.917782729</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-4848768.995282728</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-4719771.049282728</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-4612597.204082727</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-2963709.410197508</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-2964415.522854048</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-2992519.405054048</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-2820358.001147718</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-2820358.001147718</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-2964192.071290888</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-2964192.071290888</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-2967681.899290888</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-2967681.899290888</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-3053894.237390888</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-3023720.862593178</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-3029589.807993178</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-3042876.215593178</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-2832438.068893178</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-2845649.747893178</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-2841666.523093178</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-2847061.445993178</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-2896358.118193178</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-2887379.234093178</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-2849206.938520148</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-2879713.276049408</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-2791740.890949408</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-2776892.927049408</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-2612041.139749408</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-2767051.380149408</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-2767051.380149408</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-2692557.996849408</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-2692557.996849408</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-2826615.744649408</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-2826615.744649408</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-2887055.623249408</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-2820958.265049408</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-2545074.436349408</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-2328294.030749408</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-2510032.082049408</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-2676970.261549408</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-2559051.980149408</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-2559051.980149408</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-2662310.765949408</v>
       </c>
       <c r="H1118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-2700056.103949408</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-2547382.489049408</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-2678946.518349408</v>
       </c>
       <c r="H1121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-2771944.890849408</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-2572537.056649408</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-2587857.709949408</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-2655777.469849408</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-2656385.175349408</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-2665363.424449408</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-2677450.322649408</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-2904698.296911528</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-2945937.255411529</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>40875.68124537999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42883.02524537998</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10391.74804537998</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-5039749.769637369</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4999027.997037368</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4999027.997037368</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4938157.502937368</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4936709.791737368</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4936709.791737368</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4989432.396937368</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4999694.053037369</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4999694.053037369</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4999660.034145148</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4999660.034145148</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4963201.684045148</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4963201.684045148</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4912279.691745148</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4869400.023509538</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4735590.022409538</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4771144.138309537</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4771144.138309537</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4771154.357209537</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4771141.483609538</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4786320.757363528</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4786320.757363528</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4777343.143763528</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4791306.847163528</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4790941.611763529</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4872110.596063528</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4874603.664863528</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4875033.809363528</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4905676.008863528</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4953951.763663528</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4949533.605763528</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4967038.897363529</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-4979360.801863529</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-4987360.801863529</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-4979396.801863529</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4979129.257463529</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5048596.397950149</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-5050609.386950149</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-5050575.186950149</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-5204251.925150149</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-5204251.925150149</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-5222036.624050149</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-5222762.337450149</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-5215744.574450148</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5325220.139273694</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5217203.340973694</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5239010.116044924</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5243700.809643974</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-5261574.950543974</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-5239757.296268864</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-5244239.744468864</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-5207361.796268864</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-5148232.160155924</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-5148232.160155924</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5236824.581555924</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5236714.278655925</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-5236714.278655925</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5251979.655874735</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-5251979.655874735</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-5279431.886294285</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-5444913.720254285</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-5434334.353454285</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-5195566.288854285</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-5207602.908654286</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-5207942.986454286</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-6733136.71152921</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-6856745.041182732</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-6719545.234182732</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-6725185.555182733</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-6782093.984982733</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-6722309.440382733</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-6789934.924239743</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-6872840.849839742</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-7012805.713215781</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-7017908.573215782</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-7017908.573215782</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-7132347.749861142</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-7148378.623061142</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-7140162.613661142</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-7071072.725661142</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-7071072.725661142</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-7070761.740661141</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-7076268.971761142</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-6898808.694499739</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-6820897.899579059</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-6641538.800081449</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-6758608.288281448</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-6431295.530881448</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-6527361.772181448</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-6487830.288061137</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-6487830.288061137</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-6632169.194161138</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-6637169.194161138</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-6555634.832861138</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-6180782.892919818</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-6410365.965019818</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-6410365.965019818</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-6173860.773019819</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-6130526.013619819</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-4705866.895436659</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-4605176.917782729</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-4848768.995282728</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-4719771.049282728</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-4612597.204082727</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-2952866.256536278</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-2952866.256536278</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-2991003.442883108</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-3079295.109627338</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-3055422.271084848</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-3021287.176291178</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-3021287.176291178</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-2963709.410197508</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-2964415.522854048</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-2992519.405054048</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-2820358.001147718</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-2820358.001147718</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-2964192.071290888</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-2964192.071290888</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-2967681.899290888</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-2967681.899290888</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-3053894.237390888</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-3023720.862593178</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-3029589.807993178</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-3029589.807993178</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-3042876.215593178</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-2832438.068893178</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-2845649.747893178</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-2847061.445993178</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-2896358.118193178</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-2887379.234093178</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-2849206.938520148</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-2879713.276049408</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-2791740.890949408</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-2776892.927049408</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-2612041.139749408</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-2767051.380149408</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-2767051.380149408</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-2692557.996849408</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-2692557.996849408</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-2826615.744649408</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-2826615.744649408</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-2887055.623249408</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-2820958.265049408</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-2545074.436349408</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-2328294.030749408</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-2510032.082049408</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-2676970.261549408</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-2559051.980149408</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-2559051.980149408</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-2662310.765949408</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-2700056.103949408</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-2547382.489049408</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-2678946.518349408</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-2771944.890849408</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-2771944.890849408</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-2697655.595349408</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-2719947.803949408</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-2589438.902749408</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-2572537.056649408</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-2572537.056649408</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-2587857.709949408</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-2655777.469849408</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-2659977.534249408</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-2765655.403449408</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-2765655.403449408</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-2656385.175349408</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-2656385.175349408</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-2665363.424449408</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-2677450.322649408</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-2904698.296911528</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-2945937.255411529</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
